--- a/data/pca/factorExposure/factorExposure_2009-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01720191574486764</v>
+        <v>0.01670265343630134</v>
       </c>
       <c r="C2">
-        <v>-0.002078586269780482</v>
+        <v>0.001539907975051678</v>
       </c>
       <c r="D2">
-        <v>-0.006816105535569406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007567317751371679</v>
+      </c>
+      <c r="E2">
+        <v>0.003577579242895378</v>
+      </c>
+      <c r="F2">
+        <v>0.02016630996608549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08565536049635007</v>
+        <v>0.08881113050591512</v>
       </c>
       <c r="C4">
-        <v>-0.01963544083316009</v>
+        <v>0.01566045262936348</v>
       </c>
       <c r="D4">
-        <v>-0.08250293277911189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08534762908200948</v>
+      </c>
+      <c r="E4">
+        <v>0.03718904587392309</v>
+      </c>
+      <c r="F4">
+        <v>-0.04487574675364077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006724404544637703</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.749055059695621e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0003464808347165104</v>
+      </c>
+      <c r="E5">
+        <v>-4.461854558617397e-05</v>
+      </c>
+      <c r="F5">
+        <v>4.488701345423897e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1602394533195968</v>
+        <v>0.1662953846148348</v>
       </c>
       <c r="C6">
-        <v>-0.03670997688965041</v>
+        <v>0.03491269518463021</v>
       </c>
       <c r="D6">
-        <v>0.02508415401145438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01557715951869026</v>
+      </c>
+      <c r="E6">
+        <v>0.01970114864020489</v>
+      </c>
+      <c r="F6">
+        <v>-0.05400789264005479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0548735421354089</v>
+        <v>0.05961712794965598</v>
       </c>
       <c r="C7">
-        <v>-0.001393680359137044</v>
+        <v>-0.001394794685757277</v>
       </c>
       <c r="D7">
-        <v>-0.04799309371041695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05287369411629148</v>
+      </c>
+      <c r="E7">
+        <v>0.01653468383369408</v>
+      </c>
+      <c r="F7">
+        <v>-0.05315289220817413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05734417431120171</v>
+        <v>0.05457155873377029</v>
       </c>
       <c r="C8">
-        <v>0.009973056731414361</v>
+        <v>-0.01140983481644503</v>
       </c>
       <c r="D8">
-        <v>-0.02915178448695829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03136867177166208</v>
+      </c>
+      <c r="E8">
+        <v>0.01136017575273836</v>
+      </c>
+      <c r="F8">
+        <v>0.03627009712907168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06646796276533838</v>
+        <v>0.06949681915973385</v>
       </c>
       <c r="C9">
-        <v>-0.01516529718277555</v>
+        <v>0.01125852410939145</v>
       </c>
       <c r="D9">
-        <v>-0.08631294180708333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08931167750583525</v>
+      </c>
+      <c r="E9">
+        <v>0.03513652206465949</v>
+      </c>
+      <c r="F9">
+        <v>-0.06426849849425509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09309427321240073</v>
+        <v>0.09029141612044522</v>
       </c>
       <c r="C10">
-        <v>-0.02315041118412178</v>
+        <v>0.02499037660151215</v>
       </c>
       <c r="D10">
-        <v>0.1624778875311136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1531143411260208</v>
+      </c>
+      <c r="E10">
+        <v>-0.04036428950243979</v>
+      </c>
+      <c r="F10">
+        <v>0.07102433834255466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08723568761820934</v>
+        <v>0.08455313988101135</v>
       </c>
       <c r="C11">
-        <v>-0.01708798844125525</v>
+        <v>0.01234766913421858</v>
       </c>
       <c r="D11">
-        <v>-0.1233258439815363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1273786138215915</v>
+      </c>
+      <c r="E11">
+        <v>0.06068096380017612</v>
+      </c>
+      <c r="F11">
+        <v>-0.01753521301954792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09205461608287652</v>
+        <v>0.08742417076618407</v>
       </c>
       <c r="C12">
-        <v>-0.01503091650826648</v>
+        <v>0.009737020135732116</v>
       </c>
       <c r="D12">
-        <v>-0.128990647726366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1406597174703904</v>
+      </c>
+      <c r="E12">
+        <v>0.06282000435657918</v>
+      </c>
+      <c r="F12">
+        <v>-0.01988553423514378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04439161180084283</v>
+        <v>0.04470357030860146</v>
       </c>
       <c r="C13">
-        <v>-0.007824782133843248</v>
+        <v>0.00411983648350705</v>
       </c>
       <c r="D13">
-        <v>-0.04979209125988467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05807086650403668</v>
+      </c>
+      <c r="E13">
+        <v>0.004120600755724119</v>
+      </c>
+      <c r="F13">
+        <v>-0.01538713019325405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01872492813408986</v>
+        <v>0.02166768636490819</v>
       </c>
       <c r="C14">
-        <v>-0.01475160959422864</v>
+        <v>0.01372868576417438</v>
       </c>
       <c r="D14">
-        <v>-0.03497745204723864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03816648575253365</v>
+      </c>
+      <c r="E14">
+        <v>0.02666653356465684</v>
+      </c>
+      <c r="F14">
+        <v>-0.02389750913756679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03382949711711052</v>
+        <v>0.03478008855800298</v>
       </c>
       <c r="C15">
-        <v>-0.008308386711876996</v>
+        <v>0.00669065382034621</v>
       </c>
       <c r="D15">
-        <v>-0.05221108889419239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.052289814543178</v>
+      </c>
+      <c r="E15">
+        <v>0.01789006085171814</v>
+      </c>
+      <c r="F15">
+        <v>-0.0297447966367094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.06852121235590133</v>
+        <v>0.06768294106680532</v>
       </c>
       <c r="C16">
-        <v>-0.005869424053491407</v>
+        <v>0.001293577825302694</v>
       </c>
       <c r="D16">
-        <v>-0.12426013060076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1349906931994466</v>
+      </c>
+      <c r="E16">
+        <v>0.07182516657318873</v>
+      </c>
+      <c r="F16">
+        <v>-0.01934813301911443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002391534601605903</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001079576026685895</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002103175494603469</v>
+      </c>
+      <c r="E17">
+        <v>0.005165729815521309</v>
+      </c>
+      <c r="F17">
+        <v>0.00419868315709096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02952825107908612</v>
+        <v>0.0464580208316939</v>
       </c>
       <c r="C18">
-        <v>0.0004212659934710129</v>
+        <v>6.781661838888096e-05</v>
       </c>
       <c r="D18">
-        <v>-0.02478879905744302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.02299467294641813</v>
+      </c>
+      <c r="E18">
+        <v>-0.003392272576651766</v>
+      </c>
+      <c r="F18">
+        <v>0.01641537614112442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06219035989757565</v>
+        <v>0.06166959296473433</v>
       </c>
       <c r="C20">
-        <v>-0.005019621164288984</v>
+        <v>0.002378598210584232</v>
       </c>
       <c r="D20">
-        <v>-0.08102731907032887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08468055350904785</v>
+      </c>
+      <c r="E20">
+        <v>0.06823412411093385</v>
+      </c>
+      <c r="F20">
+        <v>-0.03566646979138553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03953089650698865</v>
+        <v>0.04173163823701546</v>
       </c>
       <c r="C21">
-        <v>-0.00976071826439691</v>
+        <v>0.007273364362886534</v>
       </c>
       <c r="D21">
-        <v>-0.04289517644473857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04218738443486172</v>
+      </c>
+      <c r="E21">
+        <v>0.001784875752865186</v>
+      </c>
+      <c r="F21">
+        <v>0.01481480388367292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0454004844504508</v>
+        <v>0.04421039613700596</v>
       </c>
       <c r="C22">
-        <v>-0.004558574021852016</v>
+        <v>0.002601063028875066</v>
       </c>
       <c r="D22">
-        <v>-0.001069789521009525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01224369485481367</v>
+      </c>
+      <c r="E22">
+        <v>0.03828910950683167</v>
+      </c>
+      <c r="F22">
+        <v>0.1014887134323866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04540916015004705</v>
+        <v>0.04421781418078207</v>
       </c>
       <c r="C23">
-        <v>-0.004560936131532247</v>
+        <v>0.002603283532140671</v>
       </c>
       <c r="D23">
-        <v>-0.00106092125814864</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0122368424437441</v>
+      </c>
+      <c r="E23">
+        <v>0.03829656872005674</v>
+      </c>
+      <c r="F23">
+        <v>0.1015300719156935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07629337354027654</v>
+        <v>0.07425901645196629</v>
       </c>
       <c r="C24">
-        <v>-0.006855948675549074</v>
+        <v>0.002460404155311194</v>
       </c>
       <c r="D24">
-        <v>-0.1266201546605397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1290620120959396</v>
+      </c>
+      <c r="E24">
+        <v>0.05643515203968544</v>
+      </c>
+      <c r="F24">
+        <v>-0.02754322345801412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08110852185768513</v>
+        <v>0.0786005914278219</v>
       </c>
       <c r="C25">
-        <v>-0.009371942895734104</v>
+        <v>0.005301852932570602</v>
       </c>
       <c r="D25">
-        <v>-0.1154426024750151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1179853736153243</v>
+      </c>
+      <c r="E25">
+        <v>0.04471912603366444</v>
+      </c>
+      <c r="F25">
+        <v>-0.02485402310066099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05655169515818222</v>
+        <v>0.06158538378295898</v>
       </c>
       <c r="C26">
-        <v>-0.01889860247503101</v>
+        <v>0.01627222023851725</v>
       </c>
       <c r="D26">
-        <v>-0.05278748898058392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.05871115006681751</v>
+      </c>
+      <c r="E26">
+        <v>0.03617687645644727</v>
+      </c>
+      <c r="F26">
+        <v>0.005040400914907496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1501406770261954</v>
+        <v>0.1550480249989628</v>
       </c>
       <c r="C28">
-        <v>-0.02736852929630972</v>
+        <v>0.03102664072089472</v>
       </c>
       <c r="D28">
-        <v>0.2453900043125162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2436938118013089</v>
+      </c>
+      <c r="E28">
+        <v>-0.06230974770224377</v>
+      </c>
+      <c r="F28">
+        <v>-0.01753009073903106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02562545701832287</v>
+        <v>0.02785081067880204</v>
       </c>
       <c r="C29">
-        <v>-0.009809387251949781</v>
+        <v>0.009148559671995311</v>
       </c>
       <c r="D29">
-        <v>-0.03485185934296752</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03632306241947721</v>
+      </c>
+      <c r="E29">
+        <v>0.01800166244534272</v>
+      </c>
+      <c r="F29">
+        <v>0.01610660454539558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.0519222622716199</v>
+        <v>0.05102997075076646</v>
       </c>
       <c r="C30">
-        <v>-0.005820966775987472</v>
+        <v>0.002367325266985749</v>
       </c>
       <c r="D30">
-        <v>-0.07524049919415944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08086504506548643</v>
+      </c>
+      <c r="E30">
+        <v>0.01760048429006403</v>
+      </c>
+      <c r="F30">
+        <v>-0.10515832212302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0513293805764099</v>
+        <v>0.05178325634337249</v>
       </c>
       <c r="C31">
-        <v>-0.01891431782119427</v>
+        <v>0.01703583968944619</v>
       </c>
       <c r="D31">
-        <v>-0.02836546696819532</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03053127633052185</v>
+      </c>
+      <c r="E31">
+        <v>0.03263361634695113</v>
+      </c>
+      <c r="F31">
+        <v>0.008374980312611847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0440784601848561</v>
+        <v>0.0494838234165967</v>
       </c>
       <c r="C32">
-        <v>-0.001513788047797364</v>
+        <v>-0.001102514497144291</v>
       </c>
       <c r="D32">
-        <v>-0.03188126724976156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03577856622052505</v>
+      </c>
+      <c r="E32">
+        <v>0.03438052825302426</v>
+      </c>
+      <c r="F32">
+        <v>0.001597615614470576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08565557138208008</v>
+        <v>0.08730778918841868</v>
       </c>
       <c r="C33">
-        <v>-0.01327377925853586</v>
+        <v>0.008238036140801232</v>
       </c>
       <c r="D33">
-        <v>-0.09792018371988301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1087092415357949</v>
+      </c>
+      <c r="E33">
+        <v>0.06038811083583463</v>
+      </c>
+      <c r="F33">
+        <v>-0.02565529578127475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0639667665554034</v>
+        <v>0.06374394121780155</v>
       </c>
       <c r="C34">
-        <v>-0.01537981953725667</v>
+        <v>0.01075584786632087</v>
       </c>
       <c r="D34">
-        <v>-0.103876506580716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.115486587572647</v>
+      </c>
+      <c r="E34">
+        <v>0.04529349652402222</v>
+      </c>
+      <c r="F34">
+        <v>-0.04182065158964881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02743979057569349</v>
+        <v>0.02852520496726577</v>
       </c>
       <c r="C35">
-        <v>-0.005199009496681881</v>
+        <v>0.00456881359705642</v>
       </c>
       <c r="D35">
-        <v>-0.01025675147818375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01331239358707058</v>
+      </c>
+      <c r="E35">
+        <v>0.02050963375410865</v>
+      </c>
+      <c r="F35">
+        <v>0.00064278997081899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02257381026544432</v>
+        <v>0.02711714092817793</v>
       </c>
       <c r="C36">
-        <v>-0.008278702984365883</v>
+        <v>0.007456598751682831</v>
       </c>
       <c r="D36">
-        <v>-0.0416843924439088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04474641586425318</v>
+      </c>
+      <c r="E36">
+        <v>0.02404411022050721</v>
+      </c>
+      <c r="F36">
+        <v>-0.02103256199554826</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003129530880585519</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008770726562295861</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003200743196740201</v>
+      </c>
+      <c r="E37">
+        <v>0.001204599338668715</v>
+      </c>
+      <c r="F37">
+        <v>0.001446624911927806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1011842637751826</v>
+        <v>0.09272517093666958</v>
       </c>
       <c r="C39">
-        <v>-0.0215596933419288</v>
+        <v>0.01592248250157054</v>
       </c>
       <c r="D39">
-        <v>-0.1594578653139415</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1570648237050217</v>
+      </c>
+      <c r="E39">
+        <v>0.07593131985771116</v>
+      </c>
+      <c r="F39">
+        <v>-0.008817766078219245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.043525514954454</v>
+        <v>0.04887610917341211</v>
       </c>
       <c r="C40">
-        <v>-0.01198766840519</v>
+        <v>0.01047448627845713</v>
       </c>
       <c r="D40">
-        <v>-0.03444025173810072</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04090048860424269</v>
+      </c>
+      <c r="E40">
+        <v>0.008829020479749278</v>
+      </c>
+      <c r="F40">
+        <v>0.02097176379586265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02650660632792832</v>
+        <v>0.0285887769284595</v>
       </c>
       <c r="C41">
-        <v>-0.008513516601427348</v>
+        <v>0.008073663614490077</v>
       </c>
       <c r="D41">
-        <v>-0.0136470505979272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01512825442414638</v>
+      </c>
+      <c r="E41">
+        <v>0.01324137659559139</v>
+      </c>
+      <c r="F41">
+        <v>0.01041638611117336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04062151800165351</v>
+        <v>0.03951383733239723</v>
       </c>
       <c r="C43">
-        <v>-0.009167116467466476</v>
+        <v>0.008349026766713506</v>
       </c>
       <c r="D43">
-        <v>-0.02414124279184442</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02447071270680642</v>
+      </c>
+      <c r="E43">
+        <v>0.03149922319233149</v>
+      </c>
+      <c r="F43">
+        <v>0.02162581377124289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06157146400201902</v>
+        <v>0.06919702173192119</v>
       </c>
       <c r="C44">
-        <v>-0.02200078136076635</v>
+        <v>0.01884899275632492</v>
       </c>
       <c r="D44">
-        <v>-0.07455533049308871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08424867864205683</v>
+      </c>
+      <c r="E44">
+        <v>0.07660710871082266</v>
+      </c>
+      <c r="F44">
+        <v>-0.2116083165850866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001639385997960947</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.041630414043137e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.280355089316869e-07</v>
+      </c>
+      <c r="E45">
+        <v>-0.0003893849677451725</v>
+      </c>
+      <c r="F45">
+        <v>8.746799400546036e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02314313560475673</v>
+        <v>0.02542283071603874</v>
       </c>
       <c r="C46">
-        <v>-0.00502672027017955</v>
+        <v>0.004331032933791872</v>
       </c>
       <c r="D46">
-        <v>-0.01782552350075996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01986050759454793</v>
+      </c>
+      <c r="E46">
+        <v>0.03702594274770679</v>
+      </c>
+      <c r="F46">
+        <v>0.02213204101300541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05431824351663363</v>
+        <v>0.05320792067498656</v>
       </c>
       <c r="C47">
-        <v>-0.007489510050212382</v>
+        <v>0.005895723009846673</v>
       </c>
       <c r="D47">
-        <v>-0.01425572070720067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0159701074465265</v>
+      </c>
+      <c r="E47">
+        <v>0.0276144361791115</v>
+      </c>
+      <c r="F47">
+        <v>0.04240449329267502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04915072033785709</v>
+        <v>0.05283779869090064</v>
       </c>
       <c r="C48">
-        <v>-0.006196052810878914</v>
+        <v>0.003851481610924133</v>
       </c>
       <c r="D48">
-        <v>-0.05944383976247868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06035947823561195</v>
+      </c>
+      <c r="E48">
+        <v>0.007939470735157441</v>
+      </c>
+      <c r="F48">
+        <v>-0.01671403385620678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1951011539250915</v>
+        <v>0.1974857287002436</v>
       </c>
       <c r="C49">
-        <v>-0.0283798774336819</v>
+        <v>0.02468322402540552</v>
       </c>
       <c r="D49">
-        <v>0.01324058909731995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007487975158953519</v>
+      </c>
+      <c r="E49">
+        <v>0.01574749081827773</v>
+      </c>
+      <c r="F49">
+        <v>-0.05508117215324006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04952331286595213</v>
+        <v>0.05236068951649933</v>
       </c>
       <c r="C50">
-        <v>-0.0146842717924503</v>
+        <v>0.01325737152484114</v>
       </c>
       <c r="D50">
-        <v>-0.02688360433742608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02897520567610897</v>
+      </c>
+      <c r="E50">
+        <v>0.0359209146668372</v>
+      </c>
+      <c r="F50">
+        <v>-0.008022243605391378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.151426361620329</v>
+        <v>0.1451348595044491</v>
       </c>
       <c r="C52">
-        <v>-0.02545528455585162</v>
+        <v>0.0215380127246971</v>
       </c>
       <c r="D52">
-        <v>-0.04272230570888928</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04545887173975103</v>
+      </c>
+      <c r="E52">
+        <v>0.03738521103267164</v>
+      </c>
+      <c r="F52">
+        <v>-0.03862022730117821</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1747006523647961</v>
+        <v>0.1673416308473949</v>
       </c>
       <c r="C53">
-        <v>-0.02850250341099119</v>
+        <v>0.02566293456560605</v>
       </c>
       <c r="D53">
-        <v>-0.00281466314503461</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006017308959322137</v>
+      </c>
+      <c r="E53">
+        <v>0.04500477210581163</v>
+      </c>
+      <c r="F53">
+        <v>-0.0841811189189637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01437686752087292</v>
+        <v>0.01757593295305547</v>
       </c>
       <c r="C54">
-        <v>-0.01185589005046625</v>
+        <v>0.01111931987060352</v>
       </c>
       <c r="D54">
-        <v>-0.03152727884991548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0311151376082135</v>
+      </c>
+      <c r="E54">
+        <v>0.02045382214721141</v>
+      </c>
+      <c r="F54">
+        <v>0.00181951753528962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.119792037573661</v>
+        <v>0.1171898262737437</v>
       </c>
       <c r="C55">
-        <v>-0.02482241895355916</v>
+        <v>0.02238865776227124</v>
       </c>
       <c r="D55">
-        <v>-0.005969026733301794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01378075615921541</v>
+      </c>
+      <c r="E55">
+        <v>0.04563942086998938</v>
+      </c>
+      <c r="F55">
+        <v>-0.0299322575235613</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1804108459565534</v>
+        <v>0.1746185507031505</v>
       </c>
       <c r="C56">
-        <v>-0.02676812329769458</v>
+        <v>0.02418051634665349</v>
       </c>
       <c r="D56">
-        <v>0.005418108776856853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001498422382946855</v>
+      </c>
+      <c r="E56">
+        <v>0.04169632726008476</v>
+      </c>
+      <c r="F56">
+        <v>-0.04353923519063392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04499343826073785</v>
+        <v>0.04403665251853714</v>
       </c>
       <c r="C58">
-        <v>-0.004039829214081516</v>
+        <v>0.0003415912164941573</v>
       </c>
       <c r="D58">
-        <v>-0.07849140549578408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0857634314454543</v>
+      </c>
+      <c r="E58">
+        <v>0.04688757385784963</v>
+      </c>
+      <c r="F58">
+        <v>0.04468009056961103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1699435495065058</v>
+        <v>0.1748933789216358</v>
       </c>
       <c r="C59">
-        <v>-0.02710960515100898</v>
+        <v>0.03013034728725599</v>
       </c>
       <c r="D59">
-        <v>0.2126924519131438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2111620279543761</v>
+      </c>
+      <c r="E59">
+        <v>-0.05780706777286642</v>
+      </c>
+      <c r="F59">
+        <v>0.06505506170953923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.22429891220287</v>
+        <v>0.2194524618914889</v>
       </c>
       <c r="C60">
-        <v>-0.007673995133822039</v>
+        <v>0.003496581689068249</v>
       </c>
       <c r="D60">
-        <v>-0.01967869446484306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01971501028248715</v>
+      </c>
+      <c r="E60">
+        <v>-0.02187943351188306</v>
+      </c>
+      <c r="F60">
+        <v>0.01396641038499178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.0739012869225401</v>
+        <v>0.06991012191245449</v>
       </c>
       <c r="C61">
-        <v>-0.01521039642494453</v>
+        <v>0.01066196941590265</v>
       </c>
       <c r="D61">
-        <v>-0.1175786712064668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1198109762903738</v>
+      </c>
+      <c r="E61">
+        <v>0.04605921827286612</v>
+      </c>
+      <c r="F61">
+        <v>0.0006619054426555092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1708992231478269</v>
+        <v>0.1668038904702369</v>
       </c>
       <c r="C62">
-        <v>-0.02921301344183607</v>
+        <v>0.02621971836811814</v>
       </c>
       <c r="D62">
-        <v>-0.001581656668856384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006884119875667918</v>
+      </c>
+      <c r="E62">
+        <v>0.04750461411167729</v>
+      </c>
+      <c r="F62">
+        <v>-0.02530298058271829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04238599217205323</v>
+        <v>0.04779553380064024</v>
       </c>
       <c r="C63">
-        <v>-0.005744562426249894</v>
+        <v>0.003509933285684451</v>
       </c>
       <c r="D63">
-        <v>-0.06424835112119515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07191828452041925</v>
+      </c>
+      <c r="E63">
+        <v>0.03276396314861153</v>
+      </c>
+      <c r="F63">
+        <v>0.001729027598680957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1138348547493891</v>
+        <v>0.1110951328629678</v>
       </c>
       <c r="C64">
-        <v>-0.01931666381994075</v>
+        <v>0.0155877159762429</v>
       </c>
       <c r="D64">
-        <v>-0.04618957463180556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05000255263154561</v>
+      </c>
+      <c r="E64">
+        <v>0.03351181521280452</v>
+      </c>
+      <c r="F64">
+        <v>-0.02274495292742148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1503440462060908</v>
+        <v>0.1560390844043202</v>
       </c>
       <c r="C65">
-        <v>-0.04254082557153467</v>
+        <v>0.04122242687676819</v>
       </c>
       <c r="D65">
-        <v>0.04800558494902306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03703749164517511</v>
+      </c>
+      <c r="E65">
+        <v>0.0131122975430951</v>
+      </c>
+      <c r="F65">
+        <v>-0.05244069958901343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1223363897302029</v>
+        <v>0.1117559035436075</v>
       </c>
       <c r="C66">
-        <v>-0.02017878371732941</v>
+        <v>0.01407130772824387</v>
       </c>
       <c r="D66">
-        <v>-0.1405418609306532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1436533352203614</v>
+      </c>
+      <c r="E66">
+        <v>0.06890882771116699</v>
+      </c>
+      <c r="F66">
+        <v>-0.01325266236723041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0596154114664024</v>
+        <v>0.05261714831579554</v>
       </c>
       <c r="C67">
-        <v>-0.006230959660660552</v>
+        <v>0.003878143652673778</v>
       </c>
       <c r="D67">
-        <v>-0.05440971767979656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05697161751937806</v>
+      </c>
+      <c r="E67">
+        <v>0.02097230767534969</v>
+      </c>
+      <c r="F67">
+        <v>0.08334955797843595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1201093063120578</v>
+        <v>0.1265008133981406</v>
       </c>
       <c r="C68">
-        <v>-0.03548763629882728</v>
+        <v>0.04032754963480926</v>
       </c>
       <c r="D68">
-        <v>0.2500924412024231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2497750056947383</v>
+      </c>
+      <c r="E68">
+        <v>-0.09172121009566714</v>
+      </c>
+      <c r="F68">
+        <v>-0.0285859602386132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03972099120644259</v>
+        <v>0.03912034589501147</v>
       </c>
       <c r="C69">
-        <v>-0.003504036975820171</v>
+        <v>0.002521460207145649</v>
       </c>
       <c r="D69">
-        <v>-0.009456273511006249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01000724027142509</v>
+      </c>
+      <c r="E69">
+        <v>0.03271945028323076</v>
+      </c>
+      <c r="F69">
+        <v>0.0191720498356972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06935121373501262</v>
+        <v>0.07042483657204206</v>
       </c>
       <c r="C70">
-        <v>0.02293457260486339</v>
+        <v>-0.02435602215839879</v>
       </c>
       <c r="D70">
-        <v>-0.0402861655838516</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03813542743144877</v>
+      </c>
+      <c r="E70">
+        <v>-0.03876046297227229</v>
+      </c>
+      <c r="F70">
+        <v>0.3584484085902118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1402313049142028</v>
+        <v>0.147485841777198</v>
       </c>
       <c r="C71">
-        <v>-0.04127479252198415</v>
+        <v>0.045899784446265</v>
       </c>
       <c r="D71">
-        <v>0.2633159120407673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2586849325307138</v>
+      </c>
+      <c r="E71">
+        <v>-0.1004879895153058</v>
+      </c>
+      <c r="F71">
+        <v>-0.02885187395912562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.138503336618707</v>
+        <v>0.1445090787078991</v>
       </c>
       <c r="C72">
-        <v>-0.03318128546811978</v>
+        <v>0.03199094155092231</v>
       </c>
       <c r="D72">
-        <v>-0.007012212478214853</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004278343362374257</v>
+      </c>
+      <c r="E72">
+        <v>0.04900250202744028</v>
+      </c>
+      <c r="F72">
+        <v>-0.03178061823759841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1956821467268099</v>
+        <v>0.2002460121701404</v>
       </c>
       <c r="C73">
-        <v>-0.02177458065826488</v>
+        <v>0.01683620258999708</v>
       </c>
       <c r="D73">
-        <v>-0.006277780067744605</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01360221990115857</v>
+      </c>
+      <c r="E73">
+        <v>0.06247709412342121</v>
+      </c>
+      <c r="F73">
+        <v>-0.01289749832044714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08799077164218558</v>
+        <v>0.08811970392086502</v>
       </c>
       <c r="C74">
-        <v>-0.01656241969508407</v>
+        <v>0.01460624272947873</v>
       </c>
       <c r="D74">
-        <v>-0.01184648476336281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01725158192401579</v>
+      </c>
+      <c r="E74">
+        <v>0.05045667530876728</v>
+      </c>
+      <c r="F74">
+        <v>-0.05060783171807112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1293100831740526</v>
+        <v>0.1218977502921084</v>
       </c>
       <c r="C75">
-        <v>-0.03492958470329174</v>
+        <v>0.03166440623426661</v>
       </c>
       <c r="D75">
-        <v>-0.02631970879817493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03155359808780623</v>
+      </c>
+      <c r="E75">
+        <v>0.06336308324447393</v>
+      </c>
+      <c r="F75">
+        <v>-0.01288540563056643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07822211561720244</v>
+        <v>0.09141351656560801</v>
       </c>
       <c r="C77">
-        <v>-0.01442537580191292</v>
+        <v>0.01093361810655152</v>
       </c>
       <c r="D77">
-        <v>-0.1141522383034483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146646497493454</v>
+      </c>
+      <c r="E77">
+        <v>0.04903970807917279</v>
+      </c>
+      <c r="F77">
+        <v>-0.04059631417216121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09553214395305828</v>
+        <v>0.09754092456822322</v>
       </c>
       <c r="C78">
-        <v>-0.04325079382818732</v>
+        <v>0.0403797790731998</v>
       </c>
       <c r="D78">
-        <v>-0.1220386013063434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1187300012893066</v>
+      </c>
+      <c r="E78">
+        <v>0.07460783768402222</v>
+      </c>
+      <c r="F78">
+        <v>-0.03769002457012893</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1689279443612167</v>
+        <v>0.1644809982165682</v>
       </c>
       <c r="C79">
-        <v>-0.03295624006788483</v>
+        <v>0.02947927182224525</v>
       </c>
       <c r="D79">
-        <v>-0.01190394322717042</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01769867334905865</v>
+      </c>
+      <c r="E79">
+        <v>0.05126022855098888</v>
+      </c>
+      <c r="F79">
+        <v>-0.008067427308104841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07930428599904991</v>
+        <v>0.07746215812486597</v>
       </c>
       <c r="C80">
-        <v>-0.003930999557448074</v>
+        <v>0.001613102575949004</v>
       </c>
       <c r="D80">
-        <v>-0.04654126691281106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04887053547066939</v>
+      </c>
+      <c r="E80">
+        <v>0.04778609534761319</v>
+      </c>
+      <c r="F80">
+        <v>0.04560489927675718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1178397309083399</v>
+        <v>0.1117366849400562</v>
       </c>
       <c r="C81">
-        <v>-0.03696828348586711</v>
+        <v>0.03513019295030061</v>
       </c>
       <c r="D81">
-        <v>-0.003833067979824909</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009566014733726291</v>
+      </c>
+      <c r="E81">
+        <v>0.05959529983105664</v>
+      </c>
+      <c r="F81">
+        <v>-0.004784620700034069</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1632690138036819</v>
+        <v>0.1614598224492829</v>
       </c>
       <c r="C82">
-        <v>-0.0327909427777086</v>
+        <v>0.03000444763813364</v>
       </c>
       <c r="D82">
-        <v>-0.0009892563485502379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002226087198715094</v>
+      </c>
+      <c r="E82">
+        <v>0.04424382326694985</v>
+      </c>
+      <c r="F82">
+        <v>-0.08295436821821879</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05741095142264584</v>
+        <v>0.05289107387009639</v>
       </c>
       <c r="C83">
-        <v>-0.006436290812167262</v>
+        <v>0.004303200127711597</v>
       </c>
       <c r="D83">
-        <v>-0.04461842379929393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04406210713732169</v>
+      </c>
+      <c r="E83">
+        <v>0.007269292295633148</v>
+      </c>
+      <c r="F83">
+        <v>0.02128145500875384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05578085556863675</v>
+        <v>0.05237327559046889</v>
       </c>
       <c r="C84">
-        <v>-0.01356052465200797</v>
+        <v>0.01099998219554491</v>
       </c>
       <c r="D84">
-        <v>-0.0730584686117606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07397102837664622</v>
+      </c>
+      <c r="E84">
+        <v>0.02235068445755554</v>
+      </c>
+      <c r="F84">
+        <v>-0.005864469224438856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1398143860734498</v>
+        <v>0.1343409020702742</v>
       </c>
       <c r="C85">
-        <v>-0.0359715649174509</v>
+        <v>0.03328649468529157</v>
       </c>
       <c r="D85">
-        <v>-0.007770814747105923</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01206347084472321</v>
+      </c>
+      <c r="E85">
+        <v>0.05018651216912241</v>
+      </c>
+      <c r="F85">
+        <v>-0.05499228753157922</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08166255152179752</v>
+        <v>0.08061027061157892</v>
       </c>
       <c r="C86">
-        <v>0.004902002573294056</v>
+        <v>-0.006913837454458224</v>
       </c>
       <c r="D86">
-        <v>-0.02914944770694399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05460370310450319</v>
+      </c>
+      <c r="E86">
+        <v>0.07290890194686112</v>
+      </c>
+      <c r="F86">
+        <v>0.8126101331607212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08886619991452935</v>
+        <v>0.0889122664754407</v>
       </c>
       <c r="C87">
-        <v>-0.02666941023828363</v>
+        <v>0.02225300359172544</v>
       </c>
       <c r="D87">
-        <v>-0.08511940141283537</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08795383751778715</v>
+      </c>
+      <c r="E87">
+        <v>-0.06263330129554776</v>
+      </c>
+      <c r="F87">
+        <v>-0.08025021262194984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06222552270419148</v>
+        <v>0.0608800764228364</v>
       </c>
       <c r="C88">
-        <v>-0.006676968480044968</v>
+        <v>0.004375254212520294</v>
       </c>
       <c r="D88">
-        <v>-0.05851695657879421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05673259337593745</v>
+      </c>
+      <c r="E88">
+        <v>0.03467113794621546</v>
+      </c>
+      <c r="F88">
+        <v>-0.004446537237398035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1290303774169465</v>
+        <v>0.1340541686448471</v>
       </c>
       <c r="C89">
-        <v>-0.01575466037576615</v>
+        <v>0.02033874333054263</v>
       </c>
       <c r="D89">
-        <v>0.2263732514711596</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.232172480300785</v>
+      </c>
+      <c r="E89">
+        <v>-0.09199322233715883</v>
+      </c>
+      <c r="F89">
+        <v>-0.01866835721811877</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1516729668111372</v>
+        <v>0.1628130834356262</v>
       </c>
       <c r="C90">
-        <v>-0.0379019226535055</v>
+        <v>0.04323122257138565</v>
       </c>
       <c r="D90">
-        <v>0.2515631322271204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.255846917704411</v>
+      </c>
+      <c r="E90">
+        <v>-0.1189310940428516</v>
+      </c>
+      <c r="F90">
+        <v>-0.02279736323647412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1260407566406997</v>
+        <v>0.1214022945227567</v>
       </c>
       <c r="C91">
-        <v>-0.02682473156920614</v>
+        <v>0.02530148289411008</v>
       </c>
       <c r="D91">
-        <v>0.01992391416788014</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01518125121860196</v>
+      </c>
+      <c r="E91">
+        <v>0.05912596987427206</v>
+      </c>
+      <c r="F91">
+        <v>0.02408311271940084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1520080324590114</v>
+        <v>0.1554578375590006</v>
       </c>
       <c r="C92">
-        <v>-0.02880391133447043</v>
+        <v>0.03358950739801226</v>
       </c>
       <c r="D92">
-        <v>0.2787204967793306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2830668092512387</v>
+      </c>
+      <c r="E92">
+        <v>-0.1065963148908665</v>
+      </c>
+      <c r="F92">
+        <v>-0.01040808737452763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1558864768399642</v>
+        <v>0.1651996544946049</v>
       </c>
       <c r="C93">
-        <v>-0.0336734067693315</v>
+        <v>0.03783529178825402</v>
       </c>
       <c r="D93">
-        <v>0.2451857589717973</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2497509668921859</v>
+      </c>
+      <c r="E93">
+        <v>-0.07043317759398815</v>
+      </c>
+      <c r="F93">
+        <v>-0.01971434615480368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1284400901395446</v>
+        <v>0.1213100230258996</v>
       </c>
       <c r="C94">
-        <v>-0.03097870334969321</v>
+        <v>0.02732270190580301</v>
       </c>
       <c r="D94">
-        <v>-0.03983761205442852</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0436914836606046</v>
+      </c>
+      <c r="E94">
+        <v>0.06603302537821008</v>
+      </c>
+      <c r="F94">
+        <v>-0.01639734820996115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1257271757056792</v>
+        <v>0.1284878210300495</v>
       </c>
       <c r="C95">
-        <v>-0.01242698817840518</v>
+        <v>0.007377805917009019</v>
       </c>
       <c r="D95">
-        <v>-0.09551395192938175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1061785888624251</v>
+      </c>
+      <c r="E95">
+        <v>0.06488808388393143</v>
+      </c>
+      <c r="F95">
+        <v>0.02018509776751905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1602869447243829</v>
+        <v>0.1448715655763664</v>
       </c>
       <c r="C96">
-        <v>0.9811041040656829</v>
+        <v>-0.9825046472798261</v>
       </c>
       <c r="D96">
-        <v>0.03752325267210632</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05741037292695906</v>
+      </c>
+      <c r="E96">
+        <v>0.05125836391474026</v>
+      </c>
+      <c r="F96">
+        <v>-0.04347236290744964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1903739739580453</v>
+        <v>0.193536904835284</v>
       </c>
       <c r="C97">
-        <v>-0.003910954362004096</v>
+        <v>0.0005301743639244855</v>
       </c>
       <c r="D97">
-        <v>0.02113700492485043</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02604302112371399</v>
+      </c>
+      <c r="E97">
+        <v>0.01584986035376339</v>
+      </c>
+      <c r="F97">
+        <v>0.1744032744593395</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1947246206658884</v>
+        <v>0.200938502400057</v>
       </c>
       <c r="C98">
-        <v>-0.01685094352322219</v>
+        <v>0.01153608359651668</v>
       </c>
       <c r="D98">
-        <v>-0.01281502067206809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.014759624534049</v>
+      </c>
+      <c r="E98">
+        <v>-0.1034562885323091</v>
+      </c>
+      <c r="F98">
+        <v>0.08802997381502438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05821415254422165</v>
+        <v>0.05785857422665663</v>
       </c>
       <c r="C99">
-        <v>-0.000176971555339324</v>
+        <v>-0.001932269059219172</v>
       </c>
       <c r="D99">
-        <v>-0.04340463608005954</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04883142774948585</v>
+      </c>
+      <c r="E99">
+        <v>0.034352254387193</v>
+      </c>
+      <c r="F99">
+        <v>0.004258530230242165</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1424434142764476</v>
+        <v>0.1320755329661674</v>
       </c>
       <c r="C100">
-        <v>0.03574691481620509</v>
+        <v>-0.0447788966284212</v>
       </c>
       <c r="D100">
-        <v>-0.4238235521633877</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3813068845919992</v>
+      </c>
+      <c r="E100">
+        <v>-0.8828268677828567</v>
+      </c>
+      <c r="F100">
+        <v>-0.0003144190197815907</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02563608634522112</v>
+        <v>0.02791193004014625</v>
       </c>
       <c r="C101">
-        <v>-0.009822804853635859</v>
+        <v>0.009181831860784796</v>
       </c>
       <c r="D101">
-        <v>-0.03436726912644775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03585568219055945</v>
+      </c>
+      <c r="E101">
+        <v>0.01739603398507197</v>
+      </c>
+      <c r="F101">
+        <v>0.01858134954522844</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
